--- a/biology/Zoologie/Eurema_elathea/Eurema_elathea.xlsx
+++ b/biology/Zoologie/Eurema_elathea/Eurema_elathea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema elathea est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,47 +523,120 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema elathea a été décrit par Pieter Cramer en 1777 sous le nom de Papilio elathea[1].
-Sous-espèces
-Eurema elathea elathea à Cuba
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema elathea a été décrit par Pieter Cramer en 1777 sous le nom de Papilio elathea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurema elathea elathea à Cuba
 Eurema elathea ella (Röber, 1909) en Équateur
 Eurema elathea flavescens (Chavannes, 1850) au Brésil
 Eurema elathea lamasi Brévignon, 1993; en Guyane française.
 Eurema elathea obsoleta (Jörgensen, 1932) au Paraguay et au Brésil
-Eurema elathea vitellina (C. &amp; R. Felder, 1861) au Venezuela, Costa Rica et en Colombie
-Nom vernaculaire
-Eurema elathea se nomme Straight-barred Grass Yellow ou Banded Yellowen anglais[2].
+Eurema elathea vitellina (C. &amp; R. Felder, 1861) au Venezuela, Costa Rica et en Colombie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema elathea se nomme Straight-barred Grass Yellow ou Banded Yellowen anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema elathea est un papillon de taille moyenne, avec un dimorphisme sexuel : chez le mâle les antérieures sont de couleur jaune avec une large bordure et une barre marron presque noir, chez la femelle les antérieures sont de couleur blanche avec uniquement une bordure marron très foncé. Les postérieures sont blanches dans les deux sexes, plus largement bordées de marron chez le mâle.
 Le revers est de couleur blanc crème, suffusée de jaune aux antérieures.
@@ -559,73 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes-hôtes
-Les plantes hôte de sa chenille sont des fabacées[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema agave  est présent au Mexique, au Surinam, à la Guadeloupe et dans toutes les grandes Antilles, au Paraguay, en Équateur,  au Venezuela, au Costa Rica, Guyane française et au Brésil[1],[3].
-Biotope
-Il réside dans les prairies et les jardins[4].
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -647,12 +665,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des fabacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema agave  est présent au Mexique, au Surinam, à la Guadeloupe et dans toutes les grandes Antilles, au Paraguay, en Équateur,  au Venezuela, au Costa Rica, Guyane française et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies et les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_elathea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Chanson</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le titre d'une chanson de Nene Altro E O Mal De Caim[5].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le titre d'une chanson de Nene Altro E O Mal De Caim.
 Sur les autres projets Wikimedia :
 Eurema elathea, sur Wikimedia CommonsEurema elathea, sur Wikispecies
 </t>
